--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3376.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3376.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.251524585963</v>
+        <v>5.968389987945557</v>
       </c>
       <c r="B1">
-        <v>2.604136353583424</v>
+        <v>3.222516775131226</v>
       </c>
       <c r="C1">
-        <v>4.108739941522977</v>
+        <v>1.947881698608398</v>
       </c>
       <c r="D1">
-        <v>3.472264050237991</v>
+        <v>1.623064398765564</v>
       </c>
       <c r="E1">
-        <v>1.152749657389844</v>
+        <v>1.533383727073669</v>
       </c>
     </row>
   </sheetData>
